--- a/Training/data/training_data.xlsx
+++ b/Training/data/training_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuri.narang/Desktop/CampIO/ChatBot/Training/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506321F4-5A5D-5D4E-A475-005419FB6B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA4CC87-D71F-EB44-99FE-0820AA48613E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{6D91F609-99E5-D24F-92A5-78FDD7B3F1B9}"/>
   </bookViews>
@@ -40,25 +40,25 @@
     <t>hello</t>
   </si>
   <si>
-    <t>Hello! How can I help you today?</t>
-  </si>
-  <si>
     <t>goodbye</t>
   </si>
   <si>
-    <t>Goodbye! Have a great day!</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>We are open from 9 AM to 5 PM.</t>
-  </si>
-  <si>
-    <t>Intent</t>
-  </si>
-  <si>
-    <t>Response</t>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>[(0, 5, "GREETING")]</t>
+  </si>
+  <si>
+    <t>[(0, 7, "FAREWELL")]</t>
+  </si>
+  <si>
+    <t>[(13, 18, "HOURS")]</t>
+  </si>
+  <si>
+    <t>What are your hours?</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -413,20 +413,21 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -434,20 +435,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
